--- a/npm_modules/LivingRoom-Images-129.xlsx
+++ b/npm_modules/LivingRoom-Images-129.xlsx
@@ -1055,8 +1055,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C218"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="B180" sqref="B180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
